--- a/pred_ohlcv/54_21/2019-10-31 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 STRAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>98452.97500000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>98452.97500000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>98452.97500000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>99316.7831</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>94740.1839</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>94740.1839</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>95438.1839</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>96183.4987</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>98678.10649999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>98678.10649999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>95868.6672</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>94355.60129999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>95349.22339999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>92016.67899999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>96416.62499999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>96327.86489999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>95559.33269999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>95559.33269999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>95559.33269999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>98684.75079999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>98684.75079999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>98684.75079999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>98684.75079999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>60307.41669999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>55543.4604</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>51216.8614</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>43602.3462</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>45954.7803</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>41336.5127</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>41939.2622</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>38699.91790000001</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>38555.90350000001</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>38555.90350000001</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>38605.90350000001</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>40123.32900000001</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>38237.69370000001</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>36152.55040000001</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>36153.55040000001</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30702.07590000001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>30703.07590000001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>29329.01640000001</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>29330.01640000001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>29280.01640000001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 STRAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>107608.8439</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>95349.22339999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>92016.67899999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>96416.62499999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>96327.86489999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>96211.66319999998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>96219.89979999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>95559.33269999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>98687.75079999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>98684.75079999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>46173.7803</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>45954.7803</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>41336.5127</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>41939.2622</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>38699.91790000001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>38555.90350000001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>38555.90350000001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>38605.90350000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>40123.32900000001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>37980.32900000001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>38085.12900000001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>38237.69370000001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>35522.56430000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>36152.55040000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>36153.55040000001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30702.07590000001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>30703.07590000001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>30653.07590000001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>30654.07590000001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>29329.01640000001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>29330.01640000001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>29280.01640000001</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
